--- a/data/1y2018acs-overall.xlsx
+++ b/data/1y2018acs-overall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Dropbox\Harvard GSAS\Research\COVID-19\modeling\census-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0346469C-3507-4857-B556-A0B549A7B0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A1653-28B9-40F3-9831-5679DDE91CC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{9C340555-73C2-445D-A611-E169A08982CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9C340555-73C2-445D-A611-E169A08982CC}"/>
   </bookViews>
   <sheets>
     <sheet name="NYC" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Total:</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Hispanic or Latino:</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Bronx County</t>
   </si>
   <si>
@@ -93,28 +90,25 @@
     <t>Census proportions</t>
   </si>
   <si>
-    <t>Seroprevalence proportions</t>
-  </si>
-  <si>
-    <t>Hispanic / Latinos</t>
-  </si>
-  <si>
-    <t>NH black / African-American</t>
-  </si>
-  <si>
-    <t>NH Asians</t>
-  </si>
-  <si>
-    <t>NH white</t>
-  </si>
-  <si>
-    <t>Multiracial / other</t>
-  </si>
-  <si>
     <t>Nassau County</t>
   </si>
   <si>
     <t>Suffolk County</t>
+  </si>
+  <si>
+    <t>Non-Hispanic white</t>
+  </si>
+  <si>
+    <t>Non-Hispanic Black or African-American</t>
+  </si>
+  <si>
+    <t>Non-Hispanic Asian</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Multiracial or other</t>
   </si>
 </sst>
 </file>
@@ -475,40 +469,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ADCF4B-CB97-41C4-8420-11562729DAD3}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="57.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="21.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +523,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -549,7 +543,7 @@
         <v>387291</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -569,7 +563,7 @@
         <v>286360</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -589,7 +583,7 @@
         <v>42991</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,7 +603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -629,7 +623,7 @@
         <v>48553</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -649,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -669,7 +663,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +683,7 @@
         <v>8578</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -709,7 +703,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -729,7 +723,7 @@
         <v>7761</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -749,7 +743,7 @@
         <v>88888</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -769,7 +763,7 @@
         <v>61626</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,7 +783,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,7 +803,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,7 +823,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,7 +843,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,7 +863,7 @@
         <v>18881</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,7 +883,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,7 +903,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -929,32 +923,26 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3">
         <f>(B4+C4+D4+E4+F4)/(B2+C2+D2+E2+F2)</f>
         <v>0.3185973671313867</v>
       </c>
-      <c r="C27" s="3">
-        <f>1758/5946</f>
-        <v>0.2956609485368315</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -962,16 +950,13 @@
         <f>(B5+C5+D5+E5+F5)/(B2+C2+D2+E2+F2)</f>
         <v>0.2171362922187926</v>
       </c>
-      <c r="C28" s="3">
-        <f>1392/5946</f>
-        <v>0.23410696266397579</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -979,59 +964,50 @@
         <f>(B7+C7+D7+E7+F7)/(B2+C2+D2+E2+F2)</f>
         <v>0.14080812997365799</v>
       </c>
-      <c r="C29" s="3">
-        <f>509/5946</f>
-        <v>8.560376723847965E-2</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3">
         <f>SUM(B13:F13)/SUM(B2:F2)</f>
         <v>0.29164477848365017</v>
       </c>
-      <c r="C30" s="3">
-        <f>2103/5946</f>
-        <v>0.35368314833501513</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <f>1-SUM(B27:B30)</f>
+        <v>3.1813432192512536E-2</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="3">
-        <f>1-SUM(B27:B30)</f>
-        <v>3.1813432192512536E-2</v>
-      </c>
-      <c r="C32" s="3">
-        <f>184/5946</f>
-        <v>3.0945173225697949E-2</v>
-      </c>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1040,7 +1016,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1049,7 +1025,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1058,7 +1034,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1067,7 +1043,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1076,15 +1052,6 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1092,30 +1059,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E3183-40F4-4E9F-9430-E3F4EE8C534C}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="57.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1094,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1105,7 @@
         <v>1188204</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1116,7 @@
         <v>992720</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1127,7 @@
         <v>109202</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1138,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1149,7 @@
         <v>58610</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1171,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1182,7 @@
         <v>23287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1193,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1204,7 @@
         <v>20757</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1215,7 @@
         <v>292889</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1226,7 @@
         <v>213629</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1270,7 +1237,7 @@
         <v>6808</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1248,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +1259,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +1270,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1281,7 @@
         <v>54418</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1292,7 @@
         <v>13074</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1336,7 +1303,7 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1347,29 +1314,23 @@
         <v>9185</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3">
         <f>SUM(B4:C4)/SUM(B2:C2)</f>
         <v>0.63171172021485955</v>
       </c>
-      <c r="C27" s="3">
-        <f>1599/2074</f>
-        <v>0.77097396335583412</v>
-      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -1377,13 +1338,10 @@
         <f>SUM(B5:C5)/SUM(B2:C2)</f>
         <v>9.3067073883686763E-2</v>
       </c>
-      <c r="C28" s="3">
-        <f>111/2074</f>
-        <v>5.351976856316297E-2</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1391,49 +1349,36 @@
         <f>SUM(B7:C7)/SUM(B2:C2)</f>
         <v>6.8101904744463343E-2</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3">
         <f>SUM(B13:C13)/SUM(B2:C2)</f>
         <v>0.18558262978985968</v>
       </c>
-      <c r="C30" s="3">
-        <f>301/2074</f>
-        <v>0.14513018322082932</v>
-      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <f>1-SUM(B27:B30)</f>
+        <v>2.1536671367130777E-2</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="3">
-        <f>1-SUM(B27:B30)</f>
-        <v>2.1536671367130777E-2</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
